--- a/data/Unicrypt/Unicrypt20130701.xlsx
+++ b/data/Unicrypt/Unicrypt20130701.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
